--- a/inst/extdata/toyFiles/FROC/frocCrStrRdrsTrts.xlsx
+++ b/inst/extdata/toyFiles/FROC/frocCrStrRdrsTrts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10510"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dev/GitHub/RJafroc/inst/extdata/toyFiles/FROC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201CDC2F-0A81-5248-9D4B-F78492D82483}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E58F66-0AF0-4247-BAA9-EE1B51812881}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10240" yWindow="1580" windowWidth="10440" windowHeight="10080" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,9 +64,6 @@
     <t>FROC</t>
   </si>
   <si>
-    <t>crossed</t>
-  </si>
-  <si>
     <t>Rdr0</t>
   </si>
   <si>
@@ -86,6 +83,9 @@
   </si>
   <si>
     <t>Trt0,Trt1</t>
+  </si>
+  <si>
+    <t>FCTRL</t>
   </si>
 </sst>
 </file>
@@ -613,15 +613,15 @@
       </c>
       <c r="M1">
         <f ca="1">RAND()-0.5</f>
-        <v>0.46797009936232836</v>
+        <v>0.40963526492804136</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1">
         <v>70</v>
@@ -634,19 +634,19 @@
       </c>
       <c r="J2">
         <f t="shared" ref="J2:J5" ca="1" si="0">ROUND(0.5*(RAND()-0.5)+E2, 2)</f>
-        <v>5.27</v>
+        <v>5.24</v>
       </c>
       <c r="M2">
         <f t="shared" ref="M2:M13" ca="1" si="1">RAND()-0.5</f>
-        <v>-0.45673785587370208</v>
+        <v>-7.5969933416447422E-2</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1">
         <v>70</v>
@@ -659,19 +659,19 @@
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>4.87</v>
+        <v>4.5</v>
       </c>
       <c r="M3">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.1326553840881028E-2</v>
+        <v>0.27869436550113824</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1">
         <v>71</v>
@@ -684,19 +684,19 @@
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>2.89</v>
+        <v>3.24</v>
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.17879258986174851</v>
+        <v>0.1642291946494232</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1">
         <v>72</v>
@@ -709,19 +709,19 @@
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>5.84</v>
+        <v>5.93</v>
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.18401172464722448</v>
+        <v>-0.1837260110213379</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1">
         <v>73</v>
@@ -734,19 +734,19 @@
       </c>
       <c r="J6">
         <f t="shared" ref="J6:J11" ca="1" si="2">ROUND(0.5*(RAND()-0.5)+E6, 2)</f>
-        <v>5.18</v>
+        <v>5.07</v>
       </c>
       <c r="M6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4902120264038059</v>
+        <v>0.3574616289883823</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1">
         <v>73</v>
@@ -759,19 +759,19 @@
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="2"/>
-        <v>5.19</v>
+        <v>5.28</v>
       </c>
       <c r="M7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.37446273666466545</v>
+        <v>-0.10387288899635649</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1">
         <v>74</v>
@@ -784,19 +784,19 @@
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="2"/>
-        <v>4.03</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="M8">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.0648720404847221E-2</v>
+        <v>0.11307687102382769</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1">
         <v>70</v>
@@ -809,19 +809,19 @@
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="2"/>
-        <v>5.03</v>
+        <v>5.04</v>
       </c>
       <c r="M9">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.7497305980719244E-2</v>
+        <v>7.1685134229795944E-2</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1">
         <v>71</v>
@@ -834,19 +834,19 @@
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="2"/>
-        <v>3.27</v>
+        <v>3.25</v>
       </c>
       <c r="M10">
         <f t="shared" ca="1" si="1"/>
-        <v>0.28125670066596087</v>
+        <v>-0.43828102586961681</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="1">
         <v>72</v>
@@ -859,19 +859,19 @@
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="2"/>
-        <v>4.8</v>
+        <v>4.74</v>
       </c>
       <c r="M11">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15390753811700175</v>
+        <v>-0.42586532025959878</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="1">
         <v>72</v>
@@ -884,15 +884,15 @@
       </c>
       <c r="M12">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.38184046976300856</v>
+        <v>-5.0285962081666913E-2</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="1">
         <v>72</v>
@@ -905,15 +905,15 @@
       </c>
       <c r="M13">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.2417501379079847E-2</v>
+        <v>0.1889089068004749</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="1">
         <v>73</v>
@@ -927,10 +927,10 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="1">
         <v>74</v>
@@ -943,15 +943,15 @@
       </c>
       <c r="M15">
         <f ca="1">AVERAGE(M1:M13)</f>
-        <v>8.462653911388443E-2</v>
+        <v>2.3514632652004555E-2</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="1">
         <v>70</v>
@@ -965,10 +965,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" s="1">
         <v>71</v>
@@ -982,10 +982,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" s="1">
         <v>72</v>
@@ -999,10 +999,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" s="1">
         <v>73</v>
@@ -1016,10 +1016,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" s="1">
         <v>74</v>
@@ -1033,10 +1033,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C21" s="1">
         <v>70</v>
@@ -1050,10 +1050,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C22" s="1">
         <v>71</v>
@@ -1067,10 +1067,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C23" s="1">
         <v>72</v>
@@ -1084,10 +1084,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C24" s="1">
         <v>73</v>
@@ -1101,10 +1101,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C25" s="1">
         <v>74</v>
@@ -1118,10 +1118,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C26" s="1">
         <v>70</v>
@@ -1135,10 +1135,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C27" s="1">
         <v>71</v>
@@ -1152,10 +1152,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C28" s="1">
         <v>72</v>
@@ -1169,10 +1169,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C29" s="1">
         <v>73</v>
@@ -1186,10 +1186,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C30" s="1">
         <v>74</v>
@@ -1203,10 +1203,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C31" s="1">
         <v>70</v>
@@ -1220,10 +1220,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C32" s="1">
         <v>71</v>
@@ -1276,10 +1276,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -1289,15 +1289,15 @@
       </c>
       <c r="J2">
         <f t="shared" ref="J2:J11" ca="1" si="0">ROUND(0.5*(RAND()-0.5)+D2, 2)</f>
-        <v>0.81</v>
+        <v>1.1399999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -1307,15 +1307,15 @@
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>2.39</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
@@ -1325,15 +1325,15 @@
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>2.09</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
@@ -1343,15 +1343,15 @@
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>2.0499999999999998</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -1361,15 +1361,15 @@
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
-        <v>2.09</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
@@ -1379,15 +1379,15 @@
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
-        <v>3.05</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
@@ -1398,10 +1398,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1">
         <v>3</v>
@@ -1411,15 +1411,15 @@
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="0"/>
-        <v>2.0099999999999998</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -1429,15 +1429,15 @@
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
@@ -1447,15 +1447,15 @@
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="0"/>
-        <v>2.21</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="1">
         <v>3</v>
@@ -1466,10 +1466,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
@@ -1480,10 +1480,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="1">
         <v>2</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="1">
         <v>74</v>
@@ -1508,10 +1508,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="1">
         <v>73</v>
@@ -1522,10 +1522,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" s="1">
         <v>3</v>
@@ -1536,10 +1536,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
@@ -1550,10 +1550,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C19" s="1">
         <v>2</v>
@@ -1564,10 +1564,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C20" s="1">
         <v>3</v>
@@ -1578,10 +1578,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C21" s="1">
         <v>71</v>
@@ -1592,10 +1592,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C22" s="1">
         <v>71</v>
@@ -1606,10 +1606,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C23" s="1">
         <v>72</v>
@@ -1634,7 +1634,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E13"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1676,10 +1676,10 @@
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>8</v>
@@ -1696,13 +1696,13 @@
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1716,10 +1716,10 @@
         <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="F4"/>
     </row>
@@ -1734,10 +1734,10 @@
         <v>0.3</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="F5"/>
     </row>
@@ -1752,10 +1752,10 @@
         <v>0.7</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="F6"/>
     </row>
@@ -1770,10 +1770,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="F7"/>
     </row>
@@ -1788,10 +1788,10 @@
         <v>0.33300000000000002</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="F8"/>
     </row>
@@ -1806,10 +1806,10 @@
         <v>0.33300000000000002</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="F9"/>
     </row>
@@ -1824,10 +1824,10 @@
         <v>0.33300000000000002</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="F10"/>
     </row>
@@ -1842,10 +1842,10 @@
         <v>0.1</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="F11"/>
     </row>
@@ -1860,10 +1860,10 @@
         <v>0.9</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="F12"/>
     </row>
@@ -1878,10 +1878,10 @@
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="F13"/>
     </row>
